--- a/biology/Écologie/Destruction_des_habitats/Destruction_des_habitats.xlsx
+++ b/biology/Écologie/Destruction_des_habitats/Destruction_des_habitats.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La notion de destruction des habitats ou perte des habitats englobe tout phénomène par lequel des habitats nécessaires à la vie d'espèces, disparaissent ou se détériorent rapidement. La perte des habitats ou leur dégradation (notamment leur fragmentation) peuvent être causées par des perturbations naturelles (incendies, inondations, maladies, séismes, activité volcanique) ou des perturbations anthropiques[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La notion de destruction des habitats ou perte des habitats englobe tout phénomène par lequel des habitats nécessaires à la vie d'espèces, disparaissent ou se détériorent rapidement. La perte des habitats ou leur dégradation (notamment leur fragmentation) peuvent être causées par des perturbations naturelles (incendies, inondations, maladies, séismes, activité volcanique) ou des perturbations anthropiques.
 </t>
         </is>
       </c>
@@ -511,10 +523,12 @@
           <t>Destruction des habitats et biodiversité</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les principales causes évoquées à l'origine de la perte de la biodiversité sont les modifications des habitats par l'homme (perte et dégradation des habitats dues à la déforestation, l'agriculture intensive, les routes, l'urbanisation, les exploitations minières et pétrolières…), la surexploitation de la biodiversité (surchasse, braconnage, surpêche), la pollution (des eaux, des sols, de l'air), les ravages par des espèces envahissantes, et le changement climatique[3]. La cause n°1 est la perte d'habitats par destruction directe[4]
-La destruction des habitats naturels entraîne l'extinction d'espèces et le déclin de populations d'amphibiens, d'oiseaux, d'insectes, de reptiles, de poissons, de mammifères. Les populations de vertébrés ont été réduites de 60 % depuis 1970, selon le rapport 2018 du WWF (Fonds mondial pour la nature)[5]. La cause n°1 est la perte d'habitats naturels par destruction directe[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les principales causes évoquées à l'origine de la perte de la biodiversité sont les modifications des habitats par l'homme (perte et dégradation des habitats dues à la déforestation, l'agriculture intensive, les routes, l'urbanisation, les exploitations minières et pétrolières…), la surexploitation de la biodiversité (surchasse, braconnage, surpêche), la pollution (des eaux, des sols, de l'air), les ravages par des espèces envahissantes, et le changement climatique. La cause n°1 est la perte d'habitats par destruction directe
+La destruction des habitats naturels entraîne l'extinction d'espèces et le déclin de populations d'amphibiens, d'oiseaux, d'insectes, de reptiles, de poissons, de mammifères. Les populations de vertébrés ont été réduites de 60 % depuis 1970, selon le rapport 2018 du WWF (Fonds mondial pour la nature). La cause n°1 est la perte d'habitats naturels par destruction directe.
 </t>
         </is>
       </c>
